--- a/tests/data/WorkFlow Test Data.xlsx
+++ b/tests/data/WorkFlow Test Data.xlsx
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2011,12 +2011,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
